--- a/TunefindSpider/db_design.xlsx
+++ b/TunefindSpider/db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Episode" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,110 @@
   </si>
   <si>
     <t>集总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Episode_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Episode_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artists_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,12 +416,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,274 +751,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
